--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_极光组.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_极光组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>闪电组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款列表增加账单详情（账单本金&amp;逾期滞纳金）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +949,7 @@
   <dimension ref="A1:T187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1169,21 +1173,45 @@
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="24"/>
+      <c r="J5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="19">
+        <v>42572</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
